--- a/周报/每周数据备份.xlsx
+++ b/周报/每周数据备份.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14730" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>综合数据</t>
   </si>
@@ -27,6 +27,12 @@
     <t>第30周</t>
   </si>
   <si>
+    <t>第31周</t>
+  </si>
+  <si>
+    <t>第32周</t>
+  </si>
+  <si>
     <t>总计费带宽</t>
   </si>
   <si>
@@ -36,6 +42,12 @@
     <t>14.26Gb</t>
   </si>
   <si>
+    <t>14.32Gb</t>
+  </si>
+  <si>
+    <t>14.50Gb</t>
+  </si>
+  <si>
     <t>用户请求数</t>
   </si>
   <si>
@@ -45,6 +57,12 @@
     <t>19.62亿次</t>
   </si>
   <si>
+    <t>20.06亿次</t>
+  </si>
+  <si>
+    <t>20.07亿次</t>
+  </si>
+  <si>
     <t>总流量</t>
   </si>
   <si>
@@ -54,6 +72,12 @@
     <t>1078230GB</t>
   </si>
   <si>
+    <t>1081450GB</t>
+  </si>
+  <si>
+    <t>1095746GB</t>
+  </si>
+  <si>
     <t>页面加速计费带宽</t>
   </si>
   <si>
@@ -63,6 +87,9 @@
     <t>0.52Gb</t>
   </si>
   <si>
+    <t>0.49Gb</t>
+  </si>
+  <si>
     <t>页面加速流量</t>
   </si>
   <si>
@@ -72,13 +99,25 @@
     <t>39386GB</t>
   </si>
   <si>
+    <t>37304GB</t>
+  </si>
+  <si>
+    <t>35709GB</t>
+  </si>
+  <si>
     <t>页面加速峰值</t>
   </si>
   <si>
-    <t>1449MB</t>
-  </si>
-  <si>
-    <t>1854MB</t>
+    <t>1.45GB</t>
+  </si>
+  <si>
+    <t>1.85GB</t>
+  </si>
+  <si>
+    <t>2.03Gb</t>
+  </si>
+  <si>
+    <t>1.38Gb</t>
   </si>
   <si>
     <t>页面加速回源峰值</t>
@@ -90,6 +129,12 @@
     <t>19MB</t>
   </si>
   <si>
+    <t>26MB</t>
+  </si>
+  <si>
+    <t>102MB</t>
+  </si>
+  <si>
     <t>下载加速计费带宽</t>
   </si>
   <si>
@@ -99,6 +144,12 @@
     <t>13.74Gb</t>
   </si>
   <si>
+    <t>14.70Gb</t>
+  </si>
+  <si>
+    <t>14.03Gb</t>
+  </si>
+  <si>
     <t>下载加速流量</t>
   </si>
   <si>
@@ -108,6 +159,12 @@
     <t>1038843GB</t>
   </si>
   <si>
+    <t>1052129GB</t>
+  </si>
+  <si>
+    <t>1060036GB</t>
+  </si>
+  <si>
     <t>下载加速峰值</t>
   </si>
   <si>
@@ -117,6 +174,12 @@
     <t>23717MB</t>
   </si>
   <si>
+    <t>24698MB</t>
+  </si>
+  <si>
+    <t>24421MB</t>
+  </si>
+  <si>
     <t>下载加速回源峰</t>
   </si>
   <si>
@@ -126,19 +189,34 @@
     <t>341MB</t>
   </si>
   <si>
+    <t>327MB</t>
+  </si>
+  <si>
+    <t>350MB</t>
+  </si>
+  <si>
     <t>平均计费带宽</t>
   </si>
   <si>
+    <t>13.82Gb</t>
+  </si>
+  <si>
+    <t>13.59Gb</t>
+  </si>
+  <si>
     <t>融合通信事业部</t>
   </si>
   <si>
     <t>飞信用户请求数</t>
   </si>
   <si>
-    <t>6348万</t>
-  </si>
-  <si>
-    <t>6763万</t>
+    <t>3348万</t>
+  </si>
+  <si>
+    <t>3636万</t>
+  </si>
+  <si>
+    <t>3334万</t>
   </si>
   <si>
     <t>飞信流量数</t>
@@ -150,6 +228,9 @@
     <t>497GB</t>
   </si>
   <si>
+    <t>306GB</t>
+  </si>
+  <si>
     <t>飞信最高带宽峰值</t>
   </si>
   <si>
@@ -159,6 +240,9 @@
     <t>39Mb</t>
   </si>
   <si>
+    <t>21Mb</t>
+  </si>
+  <si>
     <t>和飞信用户请求数</t>
   </si>
   <si>
@@ -168,6 +252,9 @@
     <t>327万</t>
   </si>
   <si>
+    <t>299万</t>
+  </si>
+  <si>
     <t>和飞信流量数</t>
   </si>
   <si>
@@ -177,6 +264,9 @@
     <t>3302GB</t>
   </si>
   <si>
+    <t>5180GB</t>
+  </si>
+  <si>
     <t>和飞信最高带宽峰值</t>
   </si>
   <si>
@@ -184,6 +274,9 @@
   </si>
   <si>
     <t>271Mb</t>
+  </si>
+  <si>
+    <t>693Mb</t>
   </si>
   <si>
     <t>MM商城事业部</t>
@@ -370,7 +463,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +480,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -410,6 +511,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,13 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -572,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,196 +681,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -877,160 +1003,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1041,7 +1167,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,60 +1241,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="综合数据"/>
     <tableColumn id="2" name="第29周"/>
     <tableColumn id="3" name="第30周"/>
+    <tableColumn id="4" name="第31周"/>
+    <tableColumn id="5" name="第32周"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A15:C21" totalsRowShown="0">
-  <autoFilter ref="A15:C21"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A15:E21" totalsRowShown="0">
+  <autoFilter ref="A15:E21"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="融合通信事业部"/>
     <tableColumn id="2" name="第29周"/>
     <tableColumn id="3" name="第30周"/>
+    <tableColumn id="4" name="第31周"/>
+    <tableColumn id="5" name="第32周"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A23:C33" totalsRowShown="0">
-  <autoFilter ref="A23:C33"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A23:E33" totalsRowShown="0">
+  <autoFilter ref="A23:E33"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="MM商城事业部"/>
     <tableColumn id="2" name="第29周"/>
     <tableColumn id="3" name="第30周"/>
+    <tableColumn id="4" name="第31周"/>
+    <tableColumn id="5" name="第32周"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A35:C41" totalsRowShown="0">
-  <autoFilter ref="A35:C41"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A35:E41" totalsRowShown="0">
+  <autoFilter ref="A35:E41"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="云事业部"/>
     <tableColumn id="2" name="第29周"/>
     <tableColumn id="3" name="第30周"/>
+    <tableColumn id="4" name="第31周"/>
+    <tableColumn id="5" name="第32周"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A43:C46" totalsRowShown="0">
-  <autoFilter ref="A43:C46"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A43:E46" totalsRowShown="0">
+  <autoFilter ref="A43:E46"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="其他部门"/>
     <tableColumn id="2" name="第29周"/>
     <tableColumn id="3" name="第30周"/>
+    <tableColumn id="4" name="第31周"/>
+    <tableColumn id="5" name="第32周"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1454,8 +1599,8 @@
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1463,6 +1608,8 @@
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -1475,170 +1622,242 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1"/>
-    <row r="15" ht="28" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
+    <row r="15" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -1646,77 +1865,101 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1"/>
-    <row r="23" ht="25" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
+    <row r="23" ht="25" customHeight="1" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -1724,123 +1967,129 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
+      <c r="A24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
+      <c r="A25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:3">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>68</v>
+      <c r="A27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
+      <c r="A28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>74</v>
+      <c r="A29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
+      <c r="A32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
+      <c r="A33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:1">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="1:3">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -1848,77 +2097,83 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
+      <c r="A36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1"/>
-    <row r="43" ht="25" customHeight="1" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>104</v>
+    <row r="43" ht="25" customHeight="1" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -1926,38 +2181,44 @@
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>107</v>
+      <c r="A44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>110</v>
+      <c r="A45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>113</v>
+      <c r="A46" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/周报/每周数据备份.xlsx
+++ b/周报/每周数据备份.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="9525" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>综合数据</t>
   </si>
@@ -219,6 +218,9 @@
     <t>3334万</t>
   </si>
   <si>
+    <t>402万</t>
+  </si>
+  <si>
     <t>飞信流量数</t>
   </si>
   <si>
@@ -243,6 +245,9 @@
     <t>21Mb</t>
   </si>
   <si>
+    <t>20MB</t>
+  </si>
+  <si>
     <t>和飞信用户请求数</t>
   </si>
   <si>
@@ -255,6 +260,9 @@
     <t>299万</t>
   </si>
   <si>
+    <t>373万</t>
+  </si>
+  <si>
     <t>和飞信流量数</t>
   </si>
   <si>
@@ -267,6 +275,9 @@
     <t>5180GB</t>
   </si>
   <si>
+    <t>4412GB</t>
+  </si>
+  <si>
     <t>和飞信最高带宽峰值</t>
   </si>
   <si>
@@ -279,6 +290,9 @@
     <t>693Mb</t>
   </si>
   <si>
+    <t>227Mb</t>
+  </si>
+  <si>
     <t>MM商城事业部</t>
   </si>
   <si>
@@ -291,6 +305,9 @@
     <t>13.55亿</t>
   </si>
   <si>
+    <t>16.04亿</t>
+  </si>
+  <si>
     <t>MM移动商城(综合)使用流量值</t>
   </si>
   <si>
@@ -300,6 +317,9 @@
     <t>1043767GB</t>
   </si>
   <si>
+    <t>1058540GB</t>
+  </si>
+  <si>
     <t>MM移动商城(综合)带宽峰值</t>
   </si>
   <si>
@@ -309,6 +329,9 @@
     <t>22419Mb</t>
   </si>
   <si>
+    <t>24220Mb</t>
+  </si>
+  <si>
     <t>MM移动商城(页面)使用流量值</t>
   </si>
   <si>
@@ -318,6 +341,9 @@
     <t>12542GB</t>
   </si>
   <si>
+    <t>13585GB</t>
+  </si>
+  <si>
     <t>MM移动商城(页面)带宽峰值</t>
   </si>
   <si>
@@ -336,9 +362,15 @@
     <t>1031224GB</t>
   </si>
   <si>
+    <t>1036221GB</t>
+  </si>
+  <si>
     <t>MM移动商城(下载)带宽峰值</t>
   </si>
   <si>
+    <t>22389Mb</t>
+  </si>
+  <si>
     <t>和生活用户请求数</t>
   </si>
   <si>
@@ -348,6 +380,9 @@
     <t>627万</t>
   </si>
   <si>
+    <t>751万</t>
+  </si>
+  <si>
     <t>和生活使用流量值</t>
   </si>
   <si>
@@ -357,6 +392,9 @@
     <t>90.31GB</t>
   </si>
   <si>
+    <t>103.06GB</t>
+  </si>
+  <si>
     <t>和生活带宽峰值</t>
   </si>
   <si>
@@ -366,6 +404,9 @@
     <t>4.52Mb</t>
   </si>
   <si>
+    <t>3.4Mb</t>
+  </si>
+  <si>
     <t>云事业部</t>
   </si>
   <si>
@@ -378,6 +419,9 @@
     <t>3.10亿</t>
   </si>
   <si>
+    <t>1.3亿</t>
+  </si>
+  <si>
     <t>139邮箱使用流量</t>
   </si>
   <si>
@@ -387,6 +431,9 @@
     <t>13736GB</t>
   </si>
   <si>
+    <t>12374GB</t>
+  </si>
+  <si>
     <t>139邮箱峰值带宽</t>
   </si>
   <si>
@@ -396,6 +443,9 @@
     <t>701Mb</t>
   </si>
   <si>
+    <t>848Mb</t>
+  </si>
+  <si>
     <t>和彩云用户请求数</t>
   </si>
   <si>
@@ -405,6 +455,9 @@
     <t>40.74万</t>
   </si>
   <si>
+    <t>117.74万</t>
+  </si>
+  <si>
     <t>和彩云使用流量</t>
   </si>
   <si>
@@ -414,6 +467,9 @@
     <t>665GB</t>
   </si>
   <si>
+    <t>753GB</t>
+  </si>
+  <si>
     <t>和彩云峰值带宽</t>
   </si>
   <si>
@@ -423,6 +479,9 @@
     <t>42Mb</t>
   </si>
   <si>
+    <t>45Mb</t>
+  </si>
+  <si>
     <t>其他部门</t>
   </si>
   <si>
@@ -435,6 +494,9 @@
     <t>77.92万</t>
   </si>
   <si>
+    <t>663.31万</t>
+  </si>
+  <si>
     <t>彩讯使用流量</t>
   </si>
   <si>
@@ -444,6 +506,9 @@
     <t>1667GB</t>
   </si>
   <si>
+    <t>1617GB</t>
+  </si>
+  <si>
     <t>彩讯峰值带宽</t>
   </si>
   <si>
@@ -451,6 +516,9 @@
   </si>
   <si>
     <t>118Mb</t>
+  </si>
+  <si>
+    <t>21.46Mb</t>
   </si>
 </sst>
 </file>
@@ -458,12 +526,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +563,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF4CB1FE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -528,8 +603,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,72 +731,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,51 +746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -687,12 +768,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -705,103 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,61 +948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,41 +982,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,17 +1002,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,6 +1030,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -998,6 +1068,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1006,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,137 +1099,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,22 +1242,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,8 +1686,8 @@
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="G3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1684,7 +1771,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1787,10 @@
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1717,6 +1806,8 @@
       <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -1841,10 +1932,10 @@
       <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1856,7 +1947,7 @@
     </row>
     <row r="14" ht="24" customHeight="1"/>
     <row r="15" ht="28" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1865,101 +1956,119 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1"/>
     <row r="23" ht="25" customHeight="1" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
+      <c r="A23" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -1967,129 +2076,159 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="4" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:3">
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:4">
       <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D28" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D29" s="8" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="34" ht="22" customHeight="1" spans="1:1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" ht="24" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -2097,83 +2236,101 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1"/>
     <row r="43" ht="25" customHeight="1" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>135</v>
+      <c r="A43" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -2181,44 +2338,53 @@
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:3">
-      <c r="A44" s="9" t="s">
-        <v>136</v>
+    <row r="44" ht="14.25" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:3">
-      <c r="A45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:4">
+      <c r="A45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:4">
+      <c r="A46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2250,21 +2416,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>